--- a/data/trans_orig/IP34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP34-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D91A12E-6285-467A-A8A0-F5479BB10456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8552AEAE-5A11-4FEC-9C8E-51E3E9FA310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A53DA33A-84B0-4BAC-BC07-F3AF9F71D0F5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3C3BEF28-4D6F-43FE-9A8C-556EE95BBD58}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="372">
   <si>
     <t>Adultos según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,13 +67,187 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -85,138 +259,129 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>Extranjero</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
@@ -226,166 +391,52 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -397,57 +448,156 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
     <t>Adultos según su lugar de nacimiento en 2015 (Tasa respuesta: 99,58%)</t>
   </si>
   <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
@@ -457,118 +607,112 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -577,147 +721,6 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
     <t>90,7%</t>
   </si>
   <si>
@@ -775,6 +778,177 @@
     <t>Adultos según su lugar de nacimiento en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
     <t>91,93%</t>
   </si>
   <si>
@@ -799,127 +973,100 @@
     <t>94,66%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>95,19%</t>
@@ -949,148 +1096,43 @@
     <t>95,06%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>95,04%</t>
@@ -1112,45 +1154,6 @@
   </si>
   <si>
     <t>94,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB14A1B-441E-408A-9EA6-00C0592F8676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DDC8E2-9373-4DB6-9105-850128D972F1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1656,155 +1659,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19836</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>52</v>
+      </c>
+      <c r="N4" s="7">
+        <v>45291</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>203972</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>193731</v>
+        <v>2537</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>607</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>397703</v>
+        <v>2537</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
-        <v>19863</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>12627</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="7">
-        <v>36</v>
-      </c>
-      <c r="N6" s="7">
-        <v>32490</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,204 +1816,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>223835</v>
+        <v>25455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>643</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>430193</v>
+        <v>47828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>176</v>
+      </c>
+      <c r="D8" s="7">
+        <v>121602</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
+        <v>156</v>
+      </c>
+      <c r="I8" s="7">
+        <v>110258</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="7">
+        <v>332</v>
+      </c>
+      <c r="N8" s="7">
+        <v>231860</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5">
-        <v>994</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>121602</v>
+        <v>7627</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>6726</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="7">
-        <v>156</v>
-      </c>
-      <c r="I9" s="7">
-        <v>110258</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>14</v>
+      </c>
+      <c r="N9" s="7">
+        <v>14353</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="7">
-        <v>332</v>
-      </c>
-      <c r="N9" s="7">
-        <v>231860</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7627</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6726</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>14</v>
-      </c>
-      <c r="N10" s="7">
-        <v>14353</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2028,13 @@
         <v>129229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -2040,13 +2043,13 @@
         <v>116984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>346</v>
@@ -2055,168 +2058,168 @@
         <v>246213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>304</v>
+      </c>
+      <c r="D12" s="7">
+        <v>203972</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="7">
+        <v>303</v>
+      </c>
+      <c r="I12" s="7">
+        <v>193731</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="7">
+        <v>607</v>
+      </c>
+      <c r="N12" s="7">
+        <v>397703</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
-        <v>994</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>186405</v>
+        <v>19863</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12627</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="7">
-        <v>248</v>
-      </c>
-      <c r="I13" s="7">
-        <v>184364</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7">
+        <v>32490</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="7">
-        <v>510</v>
-      </c>
-      <c r="N13" s="7">
-        <v>370769</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>21991</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="7">
-        <v>27</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25936</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="7">
-        <v>48</v>
-      </c>
-      <c r="N14" s="7">
-        <v>47927</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,129 +2228,129 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="D15" s="7">
-        <v>208396</v>
+        <v>223835</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="I15" s="7">
-        <v>210300</v>
+        <v>206358</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="N15" s="7">
-        <v>418696</v>
+        <v>430193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>225</v>
+      </c>
+      <c r="D16" s="7">
+        <v>137084</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="7">
+        <v>214</v>
+      </c>
+      <c r="I16" s="7">
+        <v>132763</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="7">
+        <v>439</v>
+      </c>
+      <c r="N16" s="7">
+        <v>269848</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7">
+        <v>29508</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="7">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
-        <v>25455</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="7">
-        <v>24</v>
-      </c>
       <c r="I17" s="7">
-        <v>19836</v>
+        <v>22613</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>86</v>
@@ -2356,28 +2359,28 @@
         <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N17" s="7">
-        <v>45291</v>
+        <v>52120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2386,43 +2389,43 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>2537</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>2537</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,204 +2434,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D19" s="7">
-        <v>25455</v>
+        <v>166592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I19" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>498</v>
       </c>
       <c r="N19" s="7">
-        <v>47828</v>
+        <v>321968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="5">
-        <v>994</v>
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>186405</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>184364</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>370769</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="D21" s="7">
-        <v>137084</v>
+        <v>21991</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="I21" s="7">
-        <v>132763</v>
+        <v>25936</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
-        <v>439</v>
+        <v>48</v>
       </c>
       <c r="N21" s="7">
-        <v>269848</v>
+        <v>47927</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>29508</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>22613</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>52120</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,204 +2640,204 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D23" s="7">
-        <v>166592</v>
+        <v>208396</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I23" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="N23" s="7">
-        <v>321968</v>
+        <v>418696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>674519</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>640951</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1315470</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>995</v>
+        <v>79</v>
       </c>
       <c r="D25" s="7">
-        <v>674519</v>
+        <v>78988</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
-        <v>945</v>
+        <v>80</v>
       </c>
       <c r="I25" s="7">
-        <v>640951</v>
+        <v>70440</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
-        <v>1940</v>
+        <v>159</v>
       </c>
       <c r="N25" s="7">
-        <v>1315470</v>
+        <v>149428</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>78988</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>70440</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>149428</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2852,13 @@
         <v>753507</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
         <v>1025</v>
@@ -2864,13 +2867,13 @@
         <v>711391</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
         <v>2099</v>
@@ -2879,13 +2882,13 @@
         <v>1464898</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E221BAD-851F-4978-9BFE-9B115EEE53F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9208C8-3DB4-4B8B-881F-D7D86BB2B2EC}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2923,7 +2926,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3020,155 +3023,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>24488</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>53</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47015</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>199443</v>
+        <v>1086</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>186064</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>144</v>
       </c>
       <c r="M5" s="7">
-        <v>612</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>385507</v>
+        <v>1086</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="7">
-        <v>24916</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="7">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7">
-        <v>21183</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M6" s="7">
-        <v>54</v>
-      </c>
-      <c r="N6" s="7">
-        <v>46099</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,204 +3180,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>994</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>115327</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>99353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>214679</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7175</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="7">
-        <v>115327</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7">
+        <v>11827</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="7">
-        <v>149</v>
-      </c>
-      <c r="I9" s="7">
-        <v>99353</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>20</v>
+      </c>
+      <c r="N9" s="7">
+        <v>19003</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="7">
-        <v>307</v>
-      </c>
-      <c r="N9" s="7">
-        <v>214679</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7175</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>11827</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="7">
-        <v>19003</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3392,13 @@
         <v>122502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>162</v>
@@ -3404,13 +3407,13 @@
         <v>111180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>327</v>
@@ -3419,168 +3422,168 @@
         <v>233682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>994</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>199443</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>186064</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>385507</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>189083</v>
+        <v>24916</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>26</v>
+      </c>
+      <c r="I13" s="7">
+        <v>21183</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H13" s="7">
-        <v>262</v>
-      </c>
-      <c r="I13" s="7">
-        <v>190786</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>54</v>
+      </c>
+      <c r="N13" s="7">
+        <v>46099</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M13" s="7">
-        <v>534</v>
-      </c>
-      <c r="N13" s="7">
-        <v>379869</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>16653</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="7">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16634</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M14" s="7">
-        <v>34</v>
-      </c>
-      <c r="N14" s="7">
-        <v>33287</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,171 +3592,171 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="I15" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>568</v>
+        <v>666</v>
       </c>
       <c r="N15" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="5">
-        <v>994</v>
+        <v>73</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>147218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>140836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>288054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>24488</v>
+        <v>19455</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7">
+        <v>15161</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="7">
-        <v>24</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="N17" s="7">
-        <v>47015</v>
+        <v>34616</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>1086</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>205</v>
@@ -3765,28 +3768,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>1086</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,204 +3798,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="I19" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>502</v>
       </c>
       <c r="N19" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="5">
-        <v>994</v>
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>189083</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>190786</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>379869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7">
+        <v>16653</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="7">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7">
+        <v>16634</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M21" s="7">
+        <v>34</v>
+      </c>
+      <c r="N21" s="7">
+        <v>33287</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D21" s="7">
-        <v>147218</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H21" s="7">
-        <v>238</v>
-      </c>
-      <c r="I21" s="7">
-        <v>140836</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M21" s="7">
-        <v>462</v>
-      </c>
-      <c r="N21" s="7">
-        <v>288054</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>19455</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="7">
-        <v>15161</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M22" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>34616</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,204 +4004,204 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="D23" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="I23" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="N23" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>675558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>639567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1968</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1315125</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>987</v>
+        <v>74</v>
       </c>
       <c r="D25" s="7">
-        <v>675558</v>
+        <v>69286</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H25" s="7">
-        <v>981</v>
+        <v>75</v>
       </c>
       <c r="I25" s="7">
-        <v>639567</v>
+        <v>64804</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="M25" s="7">
-        <v>1968</v>
+        <v>149</v>
       </c>
       <c r="N25" s="7">
-        <v>1315125</v>
+        <v>134090</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>69286</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>64804</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>134090</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4216,13 @@
         <v>744844</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
         <v>1056</v>
@@ -4228,13 +4231,13 @@
         <v>704371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
         <v>2117</v>
@@ -4243,13 +4246,13 @@
         <v>1449215</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418C5A1-BCCC-492D-B55E-BBF7B67D0E19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A36CBAE-6E02-4872-ACD4-A12EB6081B3D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4287,7 +4290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4384,47 +4387,47 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>229992</v>
+        <v>514</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>247</v>
       </c>
       <c r="H4" s="7">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>180195</v>
+        <v>1044</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>248</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1559</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="M4" s="7">
-        <v>576</v>
-      </c>
-      <c r="N4" s="7">
-        <v>410187</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>251</v>
@@ -4436,103 +4439,103 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>17622</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H5" s="7">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9830</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M5" s="7">
-        <v>40</v>
-      </c>
-      <c r="N5" s="7">
-        <v>27453</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>2571</v>
+        <v>12184</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>2327</v>
+        <v>15743</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="N6" s="7">
-        <v>4898</v>
+        <v>27926</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,204 +4544,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>994</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>103368</v>
+        <v>8813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>96396</v>
+        <v>7105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="N8" s="7">
-        <v>199762</v>
+        <v>15918</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>8813</v>
+        <v>2416</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>7105</v>
+        <v>394</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M9" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>15918</v>
+        <v>2809</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7">
-        <v>2416</v>
+        <v>103368</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="I10" s="7">
-        <v>394</v>
+        <v>96396</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="N10" s="7">
-        <v>2809</v>
+        <v>199762</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4756,13 @@
         <v>114596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -4768,13 +4771,13 @@
         <v>103895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>320</v>
@@ -4783,168 +4786,168 @@
         <v>218490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>994</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>166605</v>
+        <v>17622</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>156214</v>
+        <v>9830</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="N12" s="7">
-        <v>322818</v>
+        <v>27453</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>7299</v>
+        <v>2571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>13058</v>
+        <v>2327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>20358</v>
+        <v>4898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="D14" s="7">
-        <v>1112</v>
+        <v>229992</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="I14" s="7">
-        <v>2670</v>
+        <v>180195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>576</v>
       </c>
       <c r="N14" s="7">
-        <v>3782</v>
+        <v>410187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,204 +4956,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N15" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="5">
-        <v>994</v>
+        <v>73</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>12184</v>
+        <v>4643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>15743</v>
+        <v>9214</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>27926</v>
+        <v>13857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>514</v>
+        <v>858</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1044</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1559</v>
+        <v>858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>167707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>159521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>327229</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,204 +5162,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D19" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="I19" s="7">
-        <v>16787</v>
+        <v>168735</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="N19" s="7">
-        <v>29485</v>
+        <v>341943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="5">
-        <v>994</v>
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>167707</v>
+        <v>7299</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="7">
+        <v>19</v>
+      </c>
+      <c r="I20" s="7">
+        <v>13058</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>28</v>
+      </c>
+      <c r="N20" s="7">
+        <v>20358</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H20" s="7">
-        <v>213</v>
-      </c>
-      <c r="I20" s="7">
-        <v>159521</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="M20" s="7">
-        <v>430</v>
-      </c>
-      <c r="N20" s="7">
-        <v>327229</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>4643</v>
+        <v>1112</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2670</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M21" s="7">
+        <v>5</v>
+      </c>
+      <c r="N21" s="7">
+        <v>3782</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="P21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="H21" s="7">
-        <v>14</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9214</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M21" s="7">
-        <v>21</v>
-      </c>
-      <c r="N21" s="7">
-        <v>13857</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="D22" s="7">
-        <v>858</v>
+        <v>166605</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" s="7">
+        <v>217</v>
+      </c>
+      <c r="I22" s="7">
+        <v>156214</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>445</v>
+      </c>
+      <c r="N22" s="7">
+        <v>322818</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>858</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,129 +5368,129 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D23" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I23" s="7">
-        <v>168735</v>
+        <v>171943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N23" s="7">
-        <v>341943</v>
+        <v>346958</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>909</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7">
-        <v>679856</v>
+        <v>38892</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>217</v>
+        <v>353</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H24" s="7">
-        <v>873</v>
+        <v>62</v>
       </c>
       <c r="I24" s="7">
-        <v>608069</v>
+        <v>40252</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M24" s="7">
-        <v>1782</v>
+        <v>120</v>
       </c>
       <c r="N24" s="7">
-        <v>1287925</v>
+        <v>79144</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>356</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>357</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>38892</v>
+        <v>6956</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>360</v>
       </c>
       <c r="H25" s="7">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>40252</v>
+        <v>5391</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>361</v>
@@ -5496,73 +5499,73 @@
         <v>362</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M25" s="7">
+        <v>18</v>
+      </c>
+      <c r="N25" s="7">
+        <v>12347</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M25" s="7">
-        <v>120</v>
-      </c>
-      <c r="N25" s="7">
-        <v>79144</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>909</v>
       </c>
       <c r="D26" s="7">
-        <v>6956</v>
+        <v>679856</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>873</v>
+      </c>
+      <c r="I26" s="7">
+        <v>608069</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5391</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>1782</v>
       </c>
       <c r="N26" s="7">
-        <v>12347</v>
+        <v>1287925</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>369</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5580,13 @@
         <v>725704</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
         <v>943</v>
@@ -5592,13 +5595,13 @@
         <v>653712</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
         <v>1920</v>
@@ -5607,13 +5610,13 @@
         <v>1379416</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
